--- a/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/detailed_category_results_gpt-5_1_shot.xlsx
+++ b/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/detailed_category_results_gpt-5_1_shot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3005,6 +3005,2486 @@
         <v>57</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>47</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>47</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>47</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>17</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>17</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>17</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>24</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>24</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>24</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>cropSpecies</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>82</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>82</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>82</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>24</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>24</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>24</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>endTime</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>31</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>31</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>31</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>14</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>14</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>14</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>startTime</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>57</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>57</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>57</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>47</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>47</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>47</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>17</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>17</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>17</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>24</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>24</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>24</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>cropSpecies</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>82</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>82</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>82</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>24</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>24</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>24</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>endTime</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>31</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>31</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>31</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>14</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>14</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>14</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>startTime</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>57</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>57</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>57</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>47</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>47</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>47</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>17</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>17</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>17</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>24</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>24</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>24</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>cropSpecies</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>82</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>82</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>82</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>24</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>24</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>24</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>endTime</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>31</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>31</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>31</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>14</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>14</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>14</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>startTime</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>57</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>57</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>57</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>47</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>47</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>47</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>17</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>17</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>17</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>24</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>24</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>24</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>cropSpecies</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>82</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>82</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>82</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>24</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>24</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>24</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>endTime</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>31</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>31</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>31</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>14</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>14</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>14</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>startTime</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>57</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>57</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>57</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>17</v>
+      </c>
+      <c r="F74" t="n">
+        <v>48</v>
+      </c>
+      <c r="G74" t="n">
+        <v>30</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.3617021276595745</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.3035714285714286</v>
+      </c>
+      <c r="K74" t="n">
+        <v>47</v>
+      </c>
+      <c r="L74" t="n">
+        <v>23</v>
+      </c>
+      <c r="M74" t="n">
+        <v>42</v>
+      </c>
+      <c r="N74" t="n">
+        <v>24</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.3538461538461539</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.4893617021276596</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.4107142857142858</v>
+      </c>
+      <c r="R74" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>7</v>
+      </c>
+      <c r="G75" t="n">
+        <v>9</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="K75" t="n">
+        <v>14</v>
+      </c>
+      <c r="L75" t="n">
+        <v>5</v>
+      </c>
+      <c r="M75" t="n">
+        <v>7</v>
+      </c>
+      <c r="N75" t="n">
+        <v>9</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="R75" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>5</v>
+      </c>
+      <c r="G76" t="n">
+        <v>15</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="K76" t="n">
+        <v>23</v>
+      </c>
+      <c r="L76" t="n">
+        <v>8</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="n">
+        <v>15</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="R76" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>cropSpecies</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>31</v>
+      </c>
+      <c r="F77" t="n">
+        <v>21</v>
+      </c>
+      <c r="G77" t="n">
+        <v>49</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.5961538461538461</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.3875</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.4696969696969697</v>
+      </c>
+      <c r="K77" t="n">
+        <v>80</v>
+      </c>
+      <c r="L77" t="n">
+        <v>41</v>
+      </c>
+      <c r="M77" t="n">
+        <v>11</v>
+      </c>
+      <c r="N77" t="n">
+        <v>39</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.7884615384615384</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.6212121212121211</v>
+      </c>
+      <c r="R77" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>11</v>
+      </c>
+      <c r="G78" t="n">
+        <v>16</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.372093023255814</v>
+      </c>
+      <c r="K78" t="n">
+        <v>24</v>
+      </c>
+      <c r="L78" t="n">
+        <v>12</v>
+      </c>
+      <c r="M78" t="n">
+        <v>7</v>
+      </c>
+      <c r="N78" t="n">
+        <v>12</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.5581395348837209</v>
+      </c>
+      <c r="R78" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>endTime</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>15</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9</v>
+      </c>
+      <c r="G79" t="n">
+        <v>15</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="K79" t="n">
+        <v>30</v>
+      </c>
+      <c r="L79" t="n">
+        <v>15</v>
+      </c>
+      <c r="M79" t="n">
+        <v>9</v>
+      </c>
+      <c r="N79" t="n">
+        <v>15</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="R79" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>7</v>
+      </c>
+      <c r="F80" t="n">
+        <v>8</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5185185185185186</v>
+      </c>
+      <c r="K80" t="n">
+        <v>12</v>
+      </c>
+      <c r="L80" t="n">
+        <v>7</v>
+      </c>
+      <c r="M80" t="n">
+        <v>8</v>
+      </c>
+      <c r="N80" t="n">
+        <v>5</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.5185185185185186</v>
+      </c>
+      <c r="R80" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>startTime</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>27</v>
+      </c>
+      <c r="F81" t="n">
+        <v>20</v>
+      </c>
+      <c r="G81" t="n">
+        <v>29</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.4821428571428572</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5242718446601942</v>
+      </c>
+      <c r="K81" t="n">
+        <v>56</v>
+      </c>
+      <c r="L81" t="n">
+        <v>28</v>
+      </c>
+      <c r="M81" t="n">
+        <v>19</v>
+      </c>
+      <c r="N81" t="n">
+        <v>28</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.5436893203883495</v>
+      </c>
+      <c r="R81" t="n">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
